--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_115.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_115.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.1819</v>
+        <v>2.3811</v>
       </c>
       <c r="J3" t="n">
-        <v>28.01</v>
+        <v>28.49</v>
       </c>
       <c r="K3" t="n">
-        <v>1097.16</v>
+        <v>1217.73</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>3.07</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.0395</v>
+        <v>1192.9632</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.991</v>
+        <v>2.1762</v>
       </c>
       <c r="J4" t="n">
-        <v>23.92</v>
+        <v>15.57</v>
       </c>
       <c r="K4" t="n">
-        <v>854.87</v>
+        <v>608.47</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="R4" t="n">
-        <v>1009.5279</v>
+        <v>1080.1087</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>10.0512</v>
+        <v>10.9155</v>
       </c>
       <c r="J5" t="n">
-        <v>27.39</v>
+        <v>26.99</v>
       </c>
       <c r="K5" t="n">
-        <v>4942.95</v>
+        <v>5288.86</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>11.94</v>
+        <v>11.62</v>
       </c>
       <c r="R5" t="n">
-        <v>4273.5581</v>
+        <v>4517.9505</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>12.0367</v>
+        <v>13.1873</v>
       </c>
       <c r="J6" t="n">
-        <v>27.71</v>
+        <v>27.52</v>
       </c>
       <c r="K6" t="n">
-        <v>5987.16</v>
+        <v>6515.36</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>9.85</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>3522.9042</v>
+        <v>3842.9604</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2796</v>
+        <v>5.7696</v>
       </c>
       <c r="J7" t="n">
-        <v>33.11</v>
+        <v>33.13</v>
       </c>
       <c r="K7" t="n">
-        <v>3138.61</v>
+        <v>3431.53</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>7.07</v>
+        <v>7.08</v>
       </c>
       <c r="R7" t="n">
-        <v>2528.6714</v>
+        <v>2753.3512</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>62.4181</v>
+        <v>69.5485</v>
       </c>
       <c r="J8" t="n">
-        <v>4.31</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>4831.91</v>
+        <v>5405.02</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>13.29</v>
+        <v>13.56</v>
       </c>
       <c r="R8" t="n">
-        <v>4753.1912</v>
+        <v>5268.6128</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>12.7</v>
+        <v>14.9297</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="n">
-        <v>433.69</v>
+        <v>486.57</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>346.3539</v>
+        <v>389.1167</v>
       </c>
     </row>
   </sheetData>
